--- a/data/analysis/social_media_analytics/pivot_tables/governance_simpl/museum_activity_groups__var1-governance_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance_simpl/museum_activity_groups__var1-governance_simpl.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -431,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -469,105 +472,159 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:40">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AN2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>1954675</v>
+        <v>844126</v>
       </c>
       <c r="C4">
-        <v>2458.7</v>
+        <v>1061.8</v>
       </c>
       <c r="D4">
-        <v>5060.1</v>
+        <v>1994.7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -576,37 +633,37 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>676</v>
+        <v>323</v>
       </c>
       <c r="H4">
-        <v>2363.5</v>
+        <v>1373.5</v>
       </c>
       <c r="I4">
-        <v>68140</v>
+        <v>19900</v>
       </c>
       <c r="J4">
         <v>795</v>
       </c>
       <c r="K4">
-        <v>3358.5</v>
+        <v>1658.4</v>
       </c>
       <c r="L4">
-        <v>582</v>
+        <v>509</v>
       </c>
       <c r="M4">
-        <v>73.2</v>
+        <v>64</v>
       </c>
       <c r="N4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O4">
-        <v>446042</v>
+        <v>315647</v>
       </c>
       <c r="P4">
-        <v>561.1</v>
+        <v>397</v>
       </c>
       <c r="Q4">
-        <v>1181.7</v>
+        <v>1305.8</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -615,42 +672,81 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U4">
-        <v>763</v>
+        <v>266.5</v>
       </c>
       <c r="V4">
-        <v>13336</v>
+        <v>18016</v>
       </c>
       <c r="W4">
         <v>795</v>
       </c>
       <c r="X4">
+        <v>614.1</v>
+      </c>
+      <c r="Y4">
+        <v>514</v>
+      </c>
+      <c r="Z4">
+        <v>64.7</v>
+      </c>
+      <c r="AA4">
+        <v>0.3</v>
+      </c>
+      <c r="AB4">
+        <v>446042</v>
+      </c>
+      <c r="AC4">
+        <v>561.1</v>
+      </c>
+      <c r="AD4">
+        <v>1181.7</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>763</v>
+      </c>
+      <c r="AI4">
+        <v>13336</v>
+      </c>
+      <c r="AJ4">
+        <v>795</v>
+      </c>
+      <c r="AK4">
         <v>1225.4</v>
       </c>
-      <c r="Y4">
+      <c r="AL4">
         <v>364</v>
       </c>
-      <c r="Z4">
+      <c r="AM4">
         <v>45.8</v>
       </c>
-      <c r="AA4">
+      <c r="AN4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>3069833</v>
+        <v>1379444</v>
       </c>
       <c r="C5">
-        <v>1280.7</v>
+        <v>575.5</v>
       </c>
       <c r="D5">
-        <v>4657.8</v>
+        <v>2000.7</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -659,37 +755,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>824</v>
+        <v>564</v>
       </c>
       <c r="I5">
-        <v>74441</v>
+        <v>47580</v>
       </c>
       <c r="J5">
         <v>2397</v>
       </c>
       <c r="K5">
-        <v>2005.1</v>
+        <v>981.8</v>
       </c>
       <c r="L5">
-        <v>1531</v>
+        <v>1405</v>
       </c>
       <c r="M5">
-        <v>63.9</v>
+        <v>58.6</v>
       </c>
       <c r="N5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="O5">
-        <v>681761</v>
+        <v>495606</v>
       </c>
       <c r="P5">
-        <v>284.4</v>
+        <v>206.8</v>
       </c>
       <c r="Q5">
-        <v>1341.3</v>
+        <v>957.5</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -698,125 +794,203 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U5">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="V5">
-        <v>36948</v>
+        <v>20884</v>
       </c>
       <c r="W5">
         <v>2397</v>
       </c>
       <c r="X5">
+        <v>346.1</v>
+      </c>
+      <c r="Y5">
+        <v>1432</v>
+      </c>
+      <c r="Z5">
+        <v>59.7</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>681761</v>
+      </c>
+      <c r="AC5">
+        <v>284.4</v>
+      </c>
+      <c r="AD5">
+        <v>1341.3</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>277</v>
+      </c>
+      <c r="AI5">
+        <v>36948</v>
+      </c>
+      <c r="AJ5">
+        <v>2397</v>
+      </c>
+      <c r="AK5">
         <v>876.3</v>
       </c>
-      <c r="Y5">
+      <c r="AL5">
         <v>778</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>32.5</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>358464</v>
+        <v>159975</v>
       </c>
       <c r="C6">
-        <v>3896.3</v>
+        <v>1738.9</v>
       </c>
       <c r="D6">
-        <v>7444</v>
+        <v>2237.9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>395.5</v>
+        <v>36.8</v>
       </c>
       <c r="G6">
-        <v>1890</v>
+        <v>960</v>
       </c>
       <c r="H6">
-        <v>4329.2</v>
+        <v>2469.2</v>
       </c>
       <c r="I6">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="J6">
         <v>92</v>
       </c>
       <c r="K6">
-        <v>4537.5</v>
+        <v>2253.2</v>
       </c>
       <c r="L6">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M6">
-        <v>85.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="N6">
         <v>1.1</v>
       </c>
       <c r="O6">
-        <v>51587</v>
+        <v>94956</v>
       </c>
       <c r="P6">
-        <v>560.7</v>
+        <v>1032.1</v>
       </c>
       <c r="Q6">
-        <v>795.8</v>
+        <v>5053</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="T6">
-        <v>264.5</v>
+        <v>167</v>
       </c>
       <c r="U6">
-        <v>901.2</v>
+        <v>483.5</v>
       </c>
       <c r="V6">
-        <v>5316</v>
+        <v>46992</v>
       </c>
       <c r="W6">
         <v>92</v>
       </c>
       <c r="X6">
+        <v>1337.4</v>
+      </c>
+      <c r="Y6">
+        <v>71</v>
+      </c>
+      <c r="Z6">
+        <v>77.2</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>51587</v>
+      </c>
+      <c r="AC6">
+        <v>560.7</v>
+      </c>
+      <c r="AD6">
+        <v>795.8</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>264.5</v>
+      </c>
+      <c r="AH6">
+        <v>901.2</v>
+      </c>
+      <c r="AI6">
+        <v>5316</v>
+      </c>
+      <c r="AJ6">
+        <v>92</v>
+      </c>
+      <c r="AK6">
         <v>1011.5</v>
       </c>
-      <c r="Y6">
+      <c r="AL6">
         <v>51</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>55.4</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>1.1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>59979</v>
+        <v>20284</v>
       </c>
       <c r="C7">
-        <v>1090.5</v>
+        <v>368.8</v>
       </c>
       <c r="D7">
-        <v>3863.5</v>
+        <v>1006.2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -828,34 +1002,34 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>209.5</v>
+        <v>107.5</v>
       </c>
       <c r="I7">
-        <v>26102</v>
+        <v>4946</v>
       </c>
       <c r="J7">
         <v>55</v>
       </c>
       <c r="K7">
-        <v>2499.1</v>
+        <v>922</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>43.6</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>-1.3</v>
       </c>
       <c r="O7">
-        <v>7226</v>
+        <v>2853</v>
       </c>
       <c r="P7">
-        <v>131.4</v>
+        <v>51.9</v>
       </c>
       <c r="Q7">
-        <v>343.6</v>
+        <v>132.5</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -867,31 +1041,71 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>1735</v>
+        <v>648</v>
       </c>
       <c r="W7">
         <v>55</v>
       </c>
       <c r="X7">
+        <v>142.6</v>
+      </c>
+      <c r="Y7">
+        <v>20</v>
+      </c>
+      <c r="Z7">
+        <v>36.4</v>
+      </c>
+      <c r="AA7">
+        <v>-1.4</v>
+      </c>
+      <c r="AB7">
+        <v>7226</v>
+      </c>
+      <c r="AC7">
+        <v>131.4</v>
+      </c>
+      <c r="AD7">
+        <v>343.6</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1735</v>
+      </c>
+      <c r="AJ7">
+        <v>55</v>
+      </c>
+      <c r="AK7">
         <v>555.8</v>
       </c>
-      <c r="Y7">
+      <c r="AL7">
         <v>13</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>23.6</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>-1.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AB1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/analysis/social_media_analytics/pivot_tables/governance_simpl/museum_activity_groups__var1-governance_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance_simpl/museum_activity_groups__var1-governance_simpl.xlsx
@@ -618,13 +618,13 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>844126</v>
+        <v>991060</v>
       </c>
       <c r="C4">
-        <v>1061.8</v>
+        <v>1246.6</v>
       </c>
       <c r="D4">
-        <v>1994.7</v>
+        <v>2442.3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -633,37 +633,37 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="H4">
-        <v>1373.5</v>
+        <v>1627</v>
       </c>
       <c r="I4">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="J4">
         <v>795</v>
       </c>
       <c r="K4">
-        <v>1658.4</v>
+        <v>1986.1</v>
       </c>
       <c r="L4">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="M4">
-        <v>64</v>
+        <v>62.8</v>
       </c>
       <c r="N4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O4">
-        <v>315647</v>
+        <v>367143</v>
       </c>
       <c r="P4">
-        <v>397</v>
+        <v>461.8</v>
       </c>
       <c r="Q4">
-        <v>1305.8</v>
+        <v>1562.7</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -672,37 +672,37 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U4">
-        <v>266.5</v>
+        <v>300</v>
       </c>
       <c r="V4">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="W4">
         <v>795</v>
       </c>
       <c r="X4">
-        <v>614.1</v>
+        <v>725.6</v>
       </c>
       <c r="Y4">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="Z4">
-        <v>64.7</v>
+        <v>63.6</v>
       </c>
       <c r="AA4">
         <v>0.3</v>
       </c>
       <c r="AB4">
-        <v>446042</v>
+        <v>494653</v>
       </c>
       <c r="AC4">
-        <v>561.1</v>
+        <v>622.2</v>
       </c>
       <c r="AD4">
-        <v>1181.7</v>
+        <v>834.5</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -711,28 +711,28 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="AH4">
-        <v>763</v>
+        <v>1016.5</v>
       </c>
       <c r="AI4">
-        <v>13336</v>
+        <v>8295</v>
       </c>
       <c r="AJ4">
         <v>795</v>
       </c>
       <c r="AK4">
-        <v>1225.4</v>
+        <v>940.4</v>
       </c>
       <c r="AL4">
-        <v>364</v>
+        <v>526</v>
       </c>
       <c r="AM4">
-        <v>45.8</v>
+        <v>66.2</v>
       </c>
       <c r="AN4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -740,13 +740,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>1379444</v>
+        <v>1617872</v>
       </c>
       <c r="C5">
-        <v>575.5</v>
+        <v>675</v>
       </c>
       <c r="D5">
-        <v>2000.7</v>
+        <v>2323.5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -755,37 +755,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>564</v>
+        <v>657</v>
       </c>
       <c r="I5">
-        <v>47580</v>
+        <v>55081</v>
       </c>
       <c r="J5">
         <v>2397</v>
       </c>
       <c r="K5">
-        <v>981.8</v>
+        <v>1160.6</v>
       </c>
       <c r="L5">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="M5">
-        <v>58.6</v>
+        <v>58.2</v>
       </c>
       <c r="N5">
         <v>-0.1</v>
       </c>
       <c r="O5">
-        <v>495606</v>
+        <v>579173</v>
       </c>
       <c r="P5">
-        <v>206.8</v>
+        <v>241.6</v>
       </c>
       <c r="Q5">
-        <v>957.5</v>
+        <v>1145.4</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -794,37 +794,37 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U5">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="V5">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="W5">
         <v>2397</v>
       </c>
       <c r="X5">
-        <v>346.1</v>
+        <v>406.2</v>
       </c>
       <c r="Y5">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="Z5">
-        <v>59.7</v>
+        <v>59.5</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>681761</v>
+        <v>902237</v>
       </c>
       <c r="AC5">
-        <v>284.4</v>
+        <v>376.4</v>
       </c>
       <c r="AD5">
-        <v>1341.3</v>
+        <v>573.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AH5">
-        <v>277</v>
+        <v>568</v>
       </c>
       <c r="AI5">
-        <v>36948</v>
+        <v>5325</v>
       </c>
       <c r="AJ5">
         <v>2397</v>
       </c>
       <c r="AK5">
-        <v>876.3</v>
+        <v>590.9</v>
       </c>
       <c r="AL5">
-        <v>778</v>
+        <v>1527</v>
       </c>
       <c r="AM5">
-        <v>32.5</v>
+        <v>63.7</v>
       </c>
       <c r="AN5">
-        <v>-0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -862,91 +862,91 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>159975</v>
+        <v>188460</v>
       </c>
       <c r="C6">
-        <v>1738.9</v>
+        <v>2048.5</v>
       </c>
       <c r="D6">
-        <v>2237.9</v>
+        <v>2592.3</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.8</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>960</v>
+        <v>1172</v>
       </c>
       <c r="H6">
-        <v>2469.2</v>
+        <v>3034.5</v>
       </c>
       <c r="I6">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="J6">
         <v>92</v>
       </c>
       <c r="K6">
-        <v>2253.2</v>
+        <v>2692.3</v>
       </c>
       <c r="L6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6">
-        <v>77.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="N6">
         <v>1.1</v>
       </c>
       <c r="O6">
-        <v>94956</v>
+        <v>104009</v>
       </c>
       <c r="P6">
-        <v>1032.1</v>
+        <v>1130.5</v>
       </c>
       <c r="Q6">
-        <v>5053</v>
+        <v>5281.1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="T6">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="U6">
-        <v>483.5</v>
+        <v>565.8</v>
       </c>
       <c r="V6">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="W6">
         <v>92</v>
       </c>
       <c r="X6">
-        <v>1337.4</v>
+        <v>1485.8</v>
       </c>
       <c r="Y6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z6">
-        <v>77.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AB6">
-        <v>51587</v>
+        <v>52618</v>
       </c>
       <c r="AC6">
-        <v>560.7</v>
+        <v>571.9</v>
       </c>
       <c r="AD6">
-        <v>795.8</v>
+        <v>647</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -955,28 +955,28 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>264.5</v>
+        <v>253.5</v>
       </c>
       <c r="AH6">
-        <v>901.2</v>
+        <v>1085.5</v>
       </c>
       <c r="AI6">
-        <v>5316</v>
+        <v>2204</v>
       </c>
       <c r="AJ6">
         <v>92</v>
       </c>
       <c r="AK6">
-        <v>1011.5</v>
+        <v>877</v>
       </c>
       <c r="AL6">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AM6">
-        <v>55.4</v>
+        <v>65.2</v>
       </c>
       <c r="AN6">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -984,13 +984,13 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>20284</v>
+        <v>25556</v>
       </c>
       <c r="C7">
-        <v>368.8</v>
+        <v>464.7</v>
       </c>
       <c r="D7">
-        <v>1006.2</v>
+        <v>1305.2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1002,16 +1002,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>107.5</v>
+        <v>130</v>
       </c>
       <c r="I7">
-        <v>4946</v>
+        <v>6144</v>
       </c>
       <c r="J7">
         <v>55</v>
       </c>
       <c r="K7">
-        <v>922</v>
+        <v>1161.6</v>
       </c>
       <c r="L7">
         <v>22</v>
@@ -1023,13 +1023,13 @@
         <v>-1.3</v>
       </c>
       <c r="O7">
-        <v>2853</v>
+        <v>3929</v>
       </c>
       <c r="P7">
-        <v>51.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="Q7">
-        <v>132.5</v>
+        <v>198.9</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1041,34 +1041,34 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V7">
-        <v>648</v>
+        <v>1010</v>
       </c>
       <c r="W7">
         <v>55</v>
       </c>
       <c r="X7">
-        <v>142.6</v>
+        <v>187.1</v>
       </c>
       <c r="Y7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z7">
-        <v>36.4</v>
+        <v>38.2</v>
       </c>
       <c r="AA7">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="AB7">
-        <v>7226</v>
+        <v>15178</v>
       </c>
       <c r="AC7">
-        <v>131.4</v>
+        <v>276</v>
       </c>
       <c r="AD7">
-        <v>343.6</v>
+        <v>583.9</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AI7">
-        <v>1735</v>
+        <v>2668</v>
       </c>
       <c r="AJ7">
         <v>55</v>
       </c>
       <c r="AK7">
-        <v>555.8</v>
+        <v>523.4</v>
       </c>
       <c r="AL7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM7">
-        <v>23.6</v>
+        <v>52.7</v>
       </c>
       <c r="AN7">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
     </row>
   </sheetData>
